--- a/avgsize.xlsx
+++ b/avgsize.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,11 +34,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.E+00"/>
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0E+00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -80,25 +89,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
+    <cellStyle name="Comma" xfId="5" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -132,15 +151,17 @@
             <c:v>GodelHash</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="57150" cmpd="sng">
+            <a:ln w="38100" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="4F81BD"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
             <c:spPr>
-              <a:ln w="57150" cmpd="sng">
+              <a:ln w="38100" cmpd="sng">
                 <a:solidFill>
                   <a:srgbClr val="4F81BD"/>
                 </a:solidFill>
@@ -153,28 +174,28 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1E+02*0.1</c:v>
+                  <c:v>100*0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1E+02*0.3</c:v>
+                  <c:v>100*0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1E+02*0.5</c:v>
+                  <c:v>100*0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1E+02*0.75</c:v>
+                  <c:v>100*0.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1E+03*0.1</c:v>
+                  <c:v>1000*0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1E+03*0.3</c:v>
+                  <c:v>1000*0.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1E+03*0.5</c:v>
+                  <c:v>1000*0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1E+03*0.75</c:v>
+                  <c:v>1000*0.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1E+04*0.1</c:v>
@@ -269,11 +290,13 @@
             <c:v>HashSet</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="57150" cmpd="sng"/>
+            <a:ln w="38100" cmpd="sng"/>
           </c:spPr>
           <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
             <c:spPr>
-              <a:ln w="57150" cmpd="sng"/>
+              <a:ln w="38100" cmpd="sng"/>
             </c:spPr>
           </c:marker>
           <c:cat>
@@ -282,28 +305,28 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1E+02*0.1</c:v>
+                  <c:v>100*0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1E+02*0.3</c:v>
+                  <c:v>100*0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1E+02*0.5</c:v>
+                  <c:v>100*0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1E+02*0.75</c:v>
+                  <c:v>100*0.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1E+03*0.1</c:v>
+                  <c:v>1000*0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1E+03*0.3</c:v>
+                  <c:v>1000*0.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1E+03*0.5</c:v>
+                  <c:v>1000*0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1E+03*0.75</c:v>
+                  <c:v>1000*0.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1E+04*0.1</c:v>
@@ -398,11 +421,13 @@
             <c:v>SortedArraySet</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="57150" cmpd="sng"/>
+            <a:ln w="38100" cmpd="sng"/>
           </c:spPr>
           <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
             <c:spPr>
-              <a:ln w="57150" cmpd="sng"/>
+              <a:ln w="38100" cmpd="sng"/>
             </c:spPr>
           </c:marker>
           <c:cat>
@@ -411,28 +436,28 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1E+02*0.1</c:v>
+                  <c:v>100*0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1E+02*0.3</c:v>
+                  <c:v>100*0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1E+02*0.5</c:v>
+                  <c:v>100*0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1E+02*0.75</c:v>
+                  <c:v>100*0.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1E+03*0.1</c:v>
+                  <c:v>1000*0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1E+03*0.3</c:v>
+                  <c:v>1000*0.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1E+03*0.5</c:v>
+                  <c:v>1000*0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1E+03*0.75</c:v>
+                  <c:v>1000*0.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1E+04*0.1</c:v>
@@ -527,15 +552,17 @@
             <c:v>TreeSet</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="57150" cmpd="sng">
+            <a:ln w="38100" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="4F81BD"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
             <c:spPr>
-              <a:ln w="57150" cmpd="sng">
+              <a:ln w="38100" cmpd="sng">
                 <a:solidFill>
                   <a:srgbClr val="4F81BD"/>
                 </a:solidFill>
@@ -548,28 +575,28 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1E+02*0.1</c:v>
+                  <c:v>100*0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1E+02*0.3</c:v>
+                  <c:v>100*0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1E+02*0.5</c:v>
+                  <c:v>100*0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1E+02*0.75</c:v>
+                  <c:v>100*0.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1E+03*0.1</c:v>
+                  <c:v>1000*0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1E+03*0.3</c:v>
+                  <c:v>1000*0.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1E+03*0.5</c:v>
+                  <c:v>1000*0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1E+03*0.75</c:v>
+                  <c:v>1000*0.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1E+04*0.1</c:v>
@@ -667,36 +694,44 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126630456"/>
-        <c:axId val="-2136320824"/>
+        <c:axId val="2091431496"/>
+        <c:axId val="2091436488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126630456"/>
+        <c:axId val="2091431496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="0E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="57150" cmpd="sng"/>
+          <a:ln w="38100" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0">
-                <a:latin typeface="Arial"/>
-                <a:cs typeface="Arial"/>
+              <a:defRPr sz="1600" b="1" i="0">
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136320824"/>
+        <c:crossAx val="2091436488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -704,7 +739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2136320824"/>
+        <c:axId val="2091436488"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -718,14 +753,14 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:numFmt formatCode="0E+00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="57150" cmpd="sng">
+          <a:ln w="38100" cmpd="sng">
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -734,15 +769,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1">
-                <a:latin typeface="Arial"/>
-                <a:cs typeface="Arial"/>
+              <a:defRPr sz="1400" b="1">
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126630456"/>
+        <c:crossAx val="2091431496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -753,10 +788,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15178486410129"/>
-          <c:y val="0.0132487743277373"/>
-          <c:w val="0.302412211631441"/>
-          <c:h val="0.242370375872827"/>
+          <c:x val="0.104774022544346"/>
+          <c:y val="0.0805348070023357"/>
+          <c:w val="0.42288131893961"/>
+          <c:h val="0.169322477637399"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -775,9 +810,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1">
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
+            <a:defRPr sz="1400" b="1">
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -788,6 +823,731 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>GodelHash</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:prstClr val="white"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$2:$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100*0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100*0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100*0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100*0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000*0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000*0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000*0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000*0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1E+04*0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1E+04*0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1E+04*0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1E+04*0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1E+05*0.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E+05*0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1E+05*0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1E+05*0.75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>8.847110662474447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.847110662474447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.847110662474447</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.847110662474447</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.75400125808297</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.75400125808297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.75400125808297</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.75400125808296</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.49096685224917</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.49096685224917</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.49096685224917</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.49096685224917</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.1348230420239</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.1348230420239</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.1348230420239</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.1348230420239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HashSet</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:prstClr val="white"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$2:$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100*0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100*0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100*0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100*0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000*0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000*0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000*0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000*0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1E+04*0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1E+04*0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1E+04*0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1E+04*0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1E+05*0.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E+05*0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1E+05*0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1E+05*0.75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1280.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3840.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6400.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9600.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12800.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38400.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>384000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>640000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>960000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.28E6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.84E6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.4E6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.6E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SortedArraySet</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:prstClr val="white"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$2:$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100*0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100*0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100*0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100*0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000*0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000*0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000*0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000*0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1E+04*0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1E+04*0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1E+04*0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1E+04*0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1E+05*0.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E+05*0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1E+05*0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1E+05*0.75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>640.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1920.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6400.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19200.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>192000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>320000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>480000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>640000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.92E6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2E6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>TreeSet</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="zigZag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:prstClr val="white"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$2:$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100*0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100*0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100*0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100*0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000*0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000*0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000*0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000*0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1E+04*0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1E+04*0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1E+04*0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1E+04*0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1E+05*0.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E+05*0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1E+05*0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1E+05*0.75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1920.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5760.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9600.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19200.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>576000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>960000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.44E6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.92E6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.76E6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.6E6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.44E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2057435448"/>
+        <c:axId val="2057440728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2057435448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="19050" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600">
+                <a:latin typeface="Times"/>
+                <a:cs typeface="Times"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2057440728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2057440728"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0E+00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="19050" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600">
+                <a:latin typeface="Times"/>
+                <a:cs typeface="Times"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2057435448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.103496842046688"/>
+          <c:y val="0.0805348070023357"/>
+          <c:w val="0.357126030624264"/>
+          <c:h val="0.178348623853211"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1700">
+              <a:latin typeface="Times"/>
+              <a:cs typeface="Times"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1">
+          <a:latin typeface="Times New Roman"/>
+          <a:cs typeface="Times New Roman"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -800,16 +1560,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -823,6 +1583,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1153,10 +1945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1166,9 +1958,10 @@
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
     <col min="9" max="9" width="24.1640625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:20">
       <c r="F1" t="s">
         <v>0</v>
       </c>
@@ -1179,8 +1972,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3">
+    <row r="2" spans="1:20">
+      <c r="A2" s="4">
         <v>100</v>
       </c>
       <c r="B2">
@@ -1207,16 +2000,46 @@
         <v>1920</v>
       </c>
       <c r="J2" t="str">
-        <f>CONCATENATE(K2, "*", B2)</f>
-        <v>1E+02*0.1</v>
+        <f>CONCATENATE(L2, "*", B2)</f>
+        <v>100*0.1</v>
       </c>
       <c r="K2" t="str">
         <f>TEXT(A2, "0E+00")</f>
         <v>1E+02</v>
       </c>
+      <c r="L2" s="3">
+        <v>100</v>
+      </c>
+      <c r="N2" s="5">
+        <f>C2/F2</f>
+        <v>6.9118052050581621E-2</v>
+      </c>
+      <c r="O2" s="5">
+        <f>C2/G2</f>
+        <v>0.13823610410116324</v>
+      </c>
+      <c r="P2" s="5">
+        <f>C2/H2</f>
+        <v>4.6078701367054414E-2</v>
+      </c>
+      <c r="Q2">
+        <v>73</v>
+      </c>
+      <c r="R2" s="5">
+        <f>Q2/F2</f>
+        <v>5.7031249999999999E-2</v>
+      </c>
+      <c r="S2" s="5">
+        <f>Q2/G2</f>
+        <v>0.1140625</v>
+      </c>
+      <c r="T2" s="5">
+        <f>Q2/H2</f>
+        <v>3.802083333333333E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="3">
+    <row r="3" spans="1:20">
+      <c r="A3" s="4">
         <v>100</v>
       </c>
       <c r="B3">
@@ -1243,16 +2066,46 @@
         <v>5760</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J17" si="5">CONCATENATE(K3, "*", B3)</f>
-        <v>1E+02*0.3</v>
+        <f t="shared" ref="J3:J17" si="5">CONCATENATE(L3, "*", B3)</f>
+        <v>100*0.3</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K17" si="6">TEXT(A3, "0E+00")</f>
         <v>1E+02</v>
       </c>
+      <c r="L3" s="3">
+        <v>100</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:N17" si="7">C3/F3</f>
+        <v>6.9118052050581621E-2</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" ref="O3:O17" si="8">C3/G3</f>
+        <v>0.13823610410116324</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" ref="P3:P17" si="9">C3/H3</f>
+        <v>4.6078701367054414E-2</v>
+      </c>
+      <c r="Q3">
+        <v>218</v>
+      </c>
+      <c r="R3" s="5">
+        <f t="shared" ref="R3:R17" si="10">Q3/F3</f>
+        <v>5.6770833333333333E-2</v>
+      </c>
+      <c r="S3" s="5">
+        <f t="shared" ref="S3:S17" si="11">Q3/G3</f>
+        <v>0.11354166666666667</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" ref="T3:T17" si="12">Q3/H3</f>
+        <v>3.784722222222222E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3">
+    <row r="4" spans="1:20">
+      <c r="A4" s="4">
         <v>100</v>
       </c>
       <c r="B4">
@@ -1280,15 +2133,45 @@
       </c>
       <c r="J4" t="str">
         <f t="shared" si="5"/>
-        <v>1E+02*0.5</v>
+        <v>100*0.5</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="6"/>
         <v>1E+02</v>
       </c>
+      <c r="L4" s="3">
+        <v>100</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="7"/>
+        <v>6.9118052050581621E-2</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="8"/>
+        <v>0.13823610410116324</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" si="9"/>
+        <v>4.6078701367054414E-2</v>
+      </c>
+      <c r="Q4">
+        <v>364</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" si="10"/>
+        <v>5.6875000000000002E-2</v>
+      </c>
+      <c r="S4" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11375</v>
+      </c>
+      <c r="T4" s="5">
+        <f t="shared" si="12"/>
+        <v>3.7916666666666668E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3">
+    <row r="5" spans="1:20">
+      <c r="A5" s="4">
         <v>100</v>
       </c>
       <c r="B5">
@@ -1316,15 +2199,45 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" si="5"/>
-        <v>1E+02*0.75</v>
+        <v>100*0.75</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="6"/>
         <v>1E+02</v>
       </c>
+      <c r="L5" s="3">
+        <v>100</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="7"/>
+        <v>6.9118052050581621E-2</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="8"/>
+        <v>0.13823610410116324</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="9"/>
+        <v>4.6078701367054414E-2</v>
+      </c>
+      <c r="Q5">
+        <v>546</v>
+      </c>
+      <c r="R5" s="5">
+        <f t="shared" si="10"/>
+        <v>5.6875000000000002E-2</v>
+      </c>
+      <c r="S5" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11375</v>
+      </c>
+      <c r="T5" s="5">
+        <f t="shared" si="12"/>
+        <v>3.7916666666666668E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="3">
+    <row r="6" spans="1:20">
+      <c r="A6" s="4">
         <v>1000</v>
       </c>
       <c r="B6">
@@ -1352,15 +2265,45 @@
       </c>
       <c r="J6" t="str">
         <f t="shared" si="5"/>
-        <v>1E+03*0.1</v>
+        <v>1000*0.1</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="6"/>
         <v>1E+03</v>
       </c>
+      <c r="L6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="7"/>
+        <v>9.9640634828773167E-2</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="8"/>
+        <v>0.19928126965754633</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="9"/>
+        <v>6.6427089885848778E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1127</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" si="10"/>
+        <v>8.8046874999999997E-2</v>
+      </c>
+      <c r="S6" s="5">
+        <f t="shared" si="11"/>
+        <v>0.17609374999999999</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" si="12"/>
+        <v>5.8697916666666669E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3">
+    <row r="7" spans="1:20">
+      <c r="A7" s="4">
         <v>1000</v>
       </c>
       <c r="B7">
@@ -1388,15 +2331,45 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="5"/>
-        <v>1E+03*0.3</v>
+        <v>1000*0.3</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="6"/>
         <v>1E+03</v>
       </c>
+      <c r="L7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="7"/>
+        <v>9.9640634828773167E-2</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.19928126965754633</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="9"/>
+        <v>6.6427089885848778E-2</v>
+      </c>
+      <c r="Q7">
+        <v>3381</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" si="10"/>
+        <v>8.8046874999999997E-2</v>
+      </c>
+      <c r="S7" s="5">
+        <f t="shared" si="11"/>
+        <v>0.17609374999999999</v>
+      </c>
+      <c r="T7" s="5">
+        <f t="shared" si="12"/>
+        <v>5.8697916666666669E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3">
+    <row r="8" spans="1:20">
+      <c r="A8" s="4">
         <v>1000</v>
       </c>
       <c r="B8">
@@ -1424,15 +2397,45 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" si="5"/>
-        <v>1E+03*0.5</v>
+        <v>1000*0.5</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="6"/>
         <v>1E+03</v>
       </c>
+      <c r="L8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="7"/>
+        <v>9.9640634828773167E-2</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="8"/>
+        <v>0.19928126965754633</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" si="9"/>
+        <v>6.6427089885848778E-2</v>
+      </c>
+      <c r="Q8">
+        <v>5635</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" si="10"/>
+        <v>8.8046874999999997E-2</v>
+      </c>
+      <c r="S8" s="5">
+        <f t="shared" si="11"/>
+        <v>0.17609374999999999</v>
+      </c>
+      <c r="T8" s="5">
+        <f t="shared" si="12"/>
+        <v>5.8697916666666669E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="3">
+    <row r="9" spans="1:20">
+      <c r="A9" s="4">
         <v>1000</v>
       </c>
       <c r="B9">
@@ -1460,15 +2463,45 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="5"/>
-        <v>1E+03*0.75</v>
+        <v>1000*0.75</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="6"/>
         <v>1E+03</v>
       </c>
+      <c r="L9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="7"/>
+        <v>9.9640634828773153E-2</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="8"/>
+        <v>0.19928126965754631</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="9"/>
+        <v>6.6427089885848778E-2</v>
+      </c>
+      <c r="Q9">
+        <v>8453</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" si="10"/>
+        <v>8.8052083333333336E-2</v>
+      </c>
+      <c r="S9" s="5">
+        <f t="shared" si="11"/>
+        <v>0.17610416666666667</v>
+      </c>
+      <c r="T9" s="5">
+        <f t="shared" si="12"/>
+        <v>5.8701388888888886E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="3">
+    <row r="10" spans="1:20">
+      <c r="A10" s="4">
         <v>10000</v>
       </c>
       <c r="B10">
@@ -1495,16 +2528,46 @@
         <v>192000</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J10:J13" si="13">CONCATENATE(K10, "*", B10)</f>
         <v>1E+04*0.1</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="6"/>
         <v>1E+04</v>
       </c>
+      <c r="L10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="7"/>
+        <v>0.12883567853319666</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="8"/>
+        <v>0.25767135706639333</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="9"/>
+        <v>8.5890452355464442E-2</v>
+      </c>
+      <c r="Q10">
+        <v>15058</v>
+      </c>
+      <c r="R10" s="5">
+        <f t="shared" si="10"/>
+        <v>0.117640625</v>
+      </c>
+      <c r="S10" s="5">
+        <f t="shared" si="11"/>
+        <v>0.23528125</v>
+      </c>
+      <c r="T10" s="5">
+        <f t="shared" si="12"/>
+        <v>7.8427083333333328E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="3">
+    <row r="11" spans="1:20">
+      <c r="A11" s="4">
         <v>10000</v>
       </c>
       <c r="B11">
@@ -1531,16 +2594,46 @@
         <v>576000</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1E+04*0.3</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="6"/>
         <v>1E+04</v>
       </c>
+      <c r="L11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="7"/>
+        <v>0.12883567853319666</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="8"/>
+        <v>0.25767135706639333</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="9"/>
+        <v>8.5890452355464442E-2</v>
+      </c>
+      <c r="Q11">
+        <v>45181</v>
+      </c>
+      <c r="R11" s="5">
+        <f t="shared" si="10"/>
+        <v>0.11765885416666666</v>
+      </c>
+      <c r="S11" s="5">
+        <f t="shared" si="11"/>
+        <v>0.23531770833333332</v>
+      </c>
+      <c r="T11" s="5">
+        <f t="shared" si="12"/>
+        <v>7.8439236111111116E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3">
+    <row r="12" spans="1:20">
+      <c r="A12" s="4">
         <v>10000</v>
       </c>
       <c r="B12">
@@ -1567,16 +2660,46 @@
         <v>960000</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1E+04*0.5</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="6"/>
         <v>1E+04</v>
       </c>
+      <c r="L12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" si="7"/>
+        <v>0.12883567853319666</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="8"/>
+        <v>0.25767135706639333</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" si="9"/>
+        <v>8.5890452355464442E-2</v>
+      </c>
+      <c r="Q12">
+        <v>75302</v>
+      </c>
+      <c r="R12" s="5">
+        <f t="shared" si="10"/>
+        <v>0.117659375</v>
+      </c>
+      <c r="S12" s="5">
+        <f t="shared" si="11"/>
+        <v>0.23531874999999999</v>
+      </c>
+      <c r="T12" s="5">
+        <f t="shared" si="12"/>
+        <v>7.8439583333333326E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3">
+    <row r="13" spans="1:20">
+      <c r="A13" s="4">
         <v>10000</v>
       </c>
       <c r="B13">
@@ -1603,16 +2726,46 @@
         <v>1440000</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1E+04*0.75</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="6"/>
         <v>1E+04</v>
       </c>
+      <c r="L13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="7"/>
+        <v>0.12883567853319666</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="8"/>
+        <v>0.25767135706639333</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" si="9"/>
+        <v>8.5890452355464442E-2</v>
+      </c>
+      <c r="Q13">
+        <v>112943</v>
+      </c>
+      <c r="R13" s="5">
+        <f t="shared" si="10"/>
+        <v>0.11764895833333333</v>
+      </c>
+      <c r="S13" s="5">
+        <f t="shared" si="11"/>
+        <v>0.23529791666666666</v>
+      </c>
+      <c r="T13" s="5">
+        <f t="shared" si="12"/>
+        <v>7.8432638888888892E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="3">
+    <row r="14" spans="1:20">
+      <c r="A14" s="4">
         <v>100000</v>
       </c>
       <c r="B14">
@@ -1639,16 +2792,46 @@
         <v>1920000</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(K14, "*", B14)</f>
         <v>1E+05*0.1</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="6"/>
         <v>1E+05</v>
       </c>
+      <c r="L14" s="3">
+        <v>100000</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="7"/>
+        <v>0.15730330501581169</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="8"/>
+        <v>0.31460661003162338</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="9"/>
+        <v>0.10486887001054114</v>
+      </c>
+      <c r="Q14">
+        <v>187323</v>
+      </c>
+      <c r="R14" s="5">
+        <f t="shared" si="10"/>
+        <v>0.14634609374999999</v>
+      </c>
+      <c r="S14" s="5">
+        <f t="shared" si="11"/>
+        <v>0.29269218749999998</v>
+      </c>
+      <c r="T14" s="5">
+        <f t="shared" si="12"/>
+        <v>9.7564062500000007E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="3">
+    <row r="15" spans="1:20">
+      <c r="A15" s="4">
         <v>100000</v>
       </c>
       <c r="B15">
@@ -1675,16 +2858,46 @@
         <v>5760000</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J15:J17" si="14">CONCATENATE(K15, "*", B15)</f>
         <v>1E+05*0.3</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="6"/>
         <v>1E+05</v>
       </c>
+      <c r="L15" s="3">
+        <v>100000</v>
+      </c>
+      <c r="N15" s="5">
+        <f t="shared" si="7"/>
+        <v>0.15730330501581169</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="8"/>
+        <v>0.31460661003162338</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="9"/>
+        <v>0.10486887001054113</v>
+      </c>
+      <c r="Q15">
+        <v>561989</v>
+      </c>
+      <c r="R15" s="5">
+        <f t="shared" si="10"/>
+        <v>0.14635130208333333</v>
+      </c>
+      <c r="S15" s="5">
+        <f t="shared" si="11"/>
+        <v>0.29270260416666666</v>
+      </c>
+      <c r="T15" s="5">
+        <f t="shared" si="12"/>
+        <v>9.7567534722222224E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="3">
+    <row r="16" spans="1:20">
+      <c r="A16" s="4">
         <v>100000</v>
       </c>
       <c r="B16">
@@ -1711,16 +2924,46 @@
         <v>9600000</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1E+05*0.5</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="6"/>
         <v>1E+05</v>
       </c>
+      <c r="L16" s="3">
+        <v>100000</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" si="7"/>
+        <v>0.15730330501581169</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="8"/>
+        <v>0.31460661003162338</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" si="9"/>
+        <v>0.10486887001054113</v>
+      </c>
+      <c r="Q16">
+        <v>936682</v>
+      </c>
+      <c r="R16" s="5">
+        <f t="shared" si="10"/>
+        <v>0.14635656250000001</v>
+      </c>
+      <c r="S16" s="5">
+        <f t="shared" si="11"/>
+        <v>0.29271312500000002</v>
+      </c>
+      <c r="T16" s="5">
+        <f t="shared" si="12"/>
+        <v>9.7571041666666664E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="3">
+    <row r="17" spans="1:20">
+      <c r="A17" s="4">
         <v>100000</v>
       </c>
       <c r="B17">
@@ -1747,12 +2990,42 @@
         <v>14400000</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1E+05*0.75</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="6"/>
         <v>1E+05</v>
+      </c>
+      <c r="L17" s="3">
+        <v>100000</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="7"/>
+        <v>0.15730330501581169</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="8"/>
+        <v>0.31460661003162338</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" si="9"/>
+        <v>0.10486887001054113</v>
+      </c>
+      <c r="Q17">
+        <v>1404983</v>
+      </c>
+      <c r="R17" s="5">
+        <f t="shared" si="10"/>
+        <v>0.14635239583333334</v>
+      </c>
+      <c r="S17" s="5">
+        <f t="shared" si="11"/>
+        <v>0.29270479166666669</v>
+      </c>
+      <c r="T17" s="5">
+        <f t="shared" si="12"/>
+        <v>9.7568263888888895E-2</v>
       </c>
     </row>
   </sheetData>
